--- a/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
+++ b/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielodom/Documents/GitHub/CTN-0094/CTNote/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51A6FA-FF3B-1348-8252-5B55B514F970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD7B1D-2688-A342-ADC1-099FB742752A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{486588A9-6F67-4D40-8009-2F993698A2A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Primary Endpoint</t>
   </si>
@@ -222,7 +222,55 @@
     <t>These complete abstinence metrics only change their behaviour with respect to how missing UDS are treated. For this metric, missings are allowed, so long as we have 6 months (10 - 4) of negative monthly UDS</t>
   </si>
   <si>
-    <t xml:space="preserve">I'd need to create a function that allows the user to specifically check certain </t>
+    <t>I'd need to create a function that allows the user to specifically check certain weeks / dates (indicies?) of the timeline and count failures for those dates only. But how do we handle missingness? If the dates of observation are fixed, missings should be counted as positive.</t>
+  </si>
+  <si>
+    <t>This is just a count of all the negative UDS, right? But we still have to check "weeks" because we don't want two negative UDS in one week to count as a 2.</t>
+  </si>
+  <si>
+    <t>TimeToOutcome</t>
+  </si>
+  <si>
+    <t>TimeToOutcome uses the proportion calculated by AddFailCounts(), so we would set this count to 1 to mark each positive or missing UDS as a single failure. This means that we can probably use TimeToOutcome() for all sorts of events, as long as some other function codes what that event is.</t>
+  </si>
+  <si>
+    <t>I know that Sean says the failure date should be marked as D - 3 if the third consecutive failure happens on day D. However, in practice, this is impossible without a time machine. Perhaps we can add an argument that allows us to mark the start or the end of the interval as the time of failure.</t>
+  </si>
+  <si>
+    <t>Again, are missing UDS a sign of use? This should be an argument.</t>
+  </si>
+  <si>
+    <t>This on might require a custom definition. Or perhaps we should change the scale from weekly to daily (we would really want those for() loops in C)? Then, we can assign weights to positive and negative UDS taken weekly, and also account for this "missing = +5" thing.</t>
+  </si>
+  <si>
+    <t>time to first positive or missing</t>
+  </si>
+  <si>
+    <t>Again, start or end of the interval? Also, we probably need to code up functions to deal with self-report data. I just don't trust that data at all.</t>
+  </si>
+  <si>
+    <t>Interesting. But I think it makes sense to do this by day, to avoid the edge cases of a person coming in on Monday and Saturday of the same week.</t>
+  </si>
+  <si>
+    <t>What about missing?</t>
+  </si>
+  <si>
+    <t>This is just a proportion in a window, but the window is at the end of treatment.</t>
+  </si>
+  <si>
+    <t>nFails would be set to 48?</t>
+  </si>
+  <si>
+    <t>What is a success?</t>
+  </si>
+  <si>
+    <t>nFails = 24-5 = 19?</t>
+  </si>
+  <si>
+    <t>nFails = 12</t>
+  </si>
+  <si>
+    <t>This would also be that function where the user specifies the exact days to count UDS.</t>
   </si>
 </sst>
 </file>
@@ -591,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730C9FF-B84E-414F-BE33-3EEBF943F5F1}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,8 +648,8 @@
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="138.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="236" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="247.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -749,6 +797,9 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -760,6 +811,9 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -771,6 +825,12 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -782,6 +842,12 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -793,6 +859,12 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -804,8 +876,11 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -815,8 +890,14 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -826,8 +907,11 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -837,8 +921,11 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -848,8 +935,11 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -859,8 +949,14 @@
       <c r="C20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -870,8 +966,14 @@
       <c r="C21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -881,8 +983,11 @@
       <c r="C22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -892,8 +997,11 @@
       <c r="C23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -903,8 +1011,11 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -914,8 +1025,14 @@
       <c r="C25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -925,8 +1042,11 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -936,8 +1056,14 @@
       <c r="C27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -946,6 +1072,9 @@
       </c>
       <c r="C28" t="s">
         <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
+++ b/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielodom/Documents/GitHub/CTN-0094/CTNote/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD7B1D-2688-A342-ADC1-099FB742752A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2E9B87-4B51-3343-ACB5-666F6A5187E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{486588A9-6F67-4D40-8009-2F993698A2A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Primary Endpoint</t>
   </si>
@@ -84,15 +84,6 @@
     <t>Longest period of negative UDS between two positive UDS</t>
   </si>
   <si>
-    <t>Krupitsky et al. (2011): No. of patients with confirmed opioid abstinence during weeks 5‐24, assessed by UDS (obtained weekly) and self‐report of nonuse (TLFB)</t>
-  </si>
-  <si>
-    <t>Rosenthal et al. (2016): Proportion of participants with no evidence of opioid use based on UDS (1×/month + at 4 random times for a total of 10 samples) and self‐report (TLFB)</t>
-  </si>
-  <si>
-    <t>Lofwall et al. (2018): Responder rate (no evidence of illicit opioid use via urine test result and self‐report‐TLFB used). Urine samples obtained at each study visit (weeks 1‐12, 16, 20, and 24) plus 3 random visits during weeks 12‐24.</t>
-  </si>
-  <si>
     <t>Abstinence (complete)</t>
   </si>
   <si>
@@ -129,15 +120,6 @@
     <t xml:space="preserve">Time to Opioid Use </t>
   </si>
   <si>
-    <t>Lee et al. (2016): Relapse Definition: ≥10 days of opioid use in a 28‐day period as assessed by self‐report (TLFB) or by UDS every 2 weeks; a positive or missing sample was computed as 5 days of opioid use</t>
-  </si>
-  <si>
-    <t>Mokri et al. (2016): Duration of verified initial opioid abstinence (self‐report via TLFB, days to first opioid‐positive or missed urine test, urine samples obtained 2×/week)</t>
-  </si>
-  <si>
-    <t>Lee et al. (2018): Participant has used non-protocol prescribed opioids starting at day 21 post-randomization as follows: 4 consecutive opioid use weeks OR 7 consecutive days of use by self-report. Use week: Any week during which a participant self-reports at least one day of non-prescribed opioid use, provides a urine sample positive for non-study opioids, or fails to provide a urine sample at the weekly assessment visit.</t>
-  </si>
-  <si>
     <t>Not-abstinent rate</t>
   </si>
   <si>
@@ -159,30 +141,6 @@
     <t>% or no. of opioid-negative samples</t>
   </si>
   <si>
-    <t>Ling et al. (2010): Proportion of 48 urine samples (obtained 3×/week) negative for illicit opioids during weeks 1-16 of the trial</t>
-  </si>
-  <si>
-    <t>Mattick et al. (2003): The absence of morphine in urine samples (obtained randomly every 2 weeks)</t>
-  </si>
-  <si>
-    <t>Fiellin et al. (2006): Percentage of opioid negative urine tests (weekly)</t>
-  </si>
-  <si>
-    <t>Tanum et al. (2017): Proportion of opioid negative UDS (weekly) during study</t>
-  </si>
-  <si>
-    <t>Haight et al. (2019): Percentage of each participant's negative urine samples (obtained weekly) and self-reports of illicit opioid use from week 5 to week 24 [the authors call this outcome “participants' percentage abstinence from opioid use”]</t>
-  </si>
-  <si>
-    <t>Lofwall et al. (2018): Proportion of UDS negative for illicit opioids. Urine samples obtained at each study visit (weeks 1‐12, 16, 20, and 24) plus 3 random visits during weeks 12‐24.</t>
-  </si>
-  <si>
-    <t>Strang et al. (2019): Proportion of heroin‐negative UDS (obtained 3×/week) at the end of the 12‐week postrandomization time point</t>
-  </si>
-  <si>
-    <t>Woody et al. (2008): Percentage of participants with opioid‐positive urine test results at weeks 4, 8, 12</t>
-  </si>
-  <si>
     <t>Reduction</t>
   </si>
   <si>
@@ -271,13 +229,97 @@
   </si>
   <si>
     <t>This would also be that function where the user specifies the exact days to count UDS.</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>No. of patients with confirmed opioid abstinence during weeks 5‐24, assessed by UDS (obtained weekly) and self‐report of nonuse (TLFB)</t>
+  </si>
+  <si>
+    <t>Krupitsky et al. (2011)</t>
+  </si>
+  <si>
+    <t>Proportion of participants with no evidence of opioid use based on UDS (1×/month + at 4 random times for a total of 10 samples) and self‐report (TLFB)</t>
+  </si>
+  <si>
+    <t>Rosenthal et al. (2016)</t>
+  </si>
+  <si>
+    <t>Responder rate (no evidence of illicit opioid use via urine test result and self‐report‐TLFB used). Urine samples obtained at each study visit (weeks 1‐12, 16, 20, and 24) plus 3 random visits during weeks 12‐24.</t>
+  </si>
+  <si>
+    <t>Lofwall et al. (2018)</t>
+  </si>
+  <si>
+    <t>Relapse Definition: ≥10 days of opioid use in a 28‐day period as assessed by self‐report (TLFB) or by UDS every 2 weeks; a positive or missing sample was computed as 5 days of opioid use</t>
+  </si>
+  <si>
+    <t>Lee et al. (2016)</t>
+  </si>
+  <si>
+    <t>Duration of verified initial opioid abstinence (self‐report via TLFB, days to first opioid‐positive or missed urine test, urine samples obtained 2×/week)</t>
+  </si>
+  <si>
+    <t>Mokri et al. (2016)</t>
+  </si>
+  <si>
+    <t>Participant has used non-protocol prescribed opioids starting at day 21 post-randomization as follows: 4 consecutive opioid use weeks OR 7 consecutive days of use by self-report. Use week: Any week during which a participant self-reports at least one day of non-prescribed opioid use, provides a urine sample positive for non-study opioids, or fails to provide a urine sample at the weekly assessment visit.</t>
+  </si>
+  <si>
+    <t>Lee et al. (2018)</t>
+  </si>
+  <si>
+    <t>Proportion of 48 urine samples (obtained 3×/week) negative for illicit opioids during weeks 1-16 of the trial</t>
+  </si>
+  <si>
+    <t>Ling et al. (2010)</t>
+  </si>
+  <si>
+    <t>The absence of morphine in urine samples (obtained randomly every 2 weeks)</t>
+  </si>
+  <si>
+    <t>Mattick et al. (2003)</t>
+  </si>
+  <si>
+    <t>Percentage of opioid negative urine tests (weekly)</t>
+  </si>
+  <si>
+    <t>Fiellin et al. (2006)</t>
+  </si>
+  <si>
+    <t>Proportion of opioid negative UDS (weekly) during study</t>
+  </si>
+  <si>
+    <t>Tanum et al. (2017)</t>
+  </si>
+  <si>
+    <t>Percentage of each participant's negative urine samples (obtained weekly) and self-reports of illicit opioid use from week 5 to week 24 [the authors call this outcome “participants' percentage abstinence from opioid use”]</t>
+  </si>
+  <si>
+    <t>Haight et al. (2019)</t>
+  </si>
+  <si>
+    <t>Proportion of UDS negative for illicit opioids. Urine samples obtained at each study visit (weeks 1‐12, 16, 20, and 24) plus 3 random visits during weeks 12‐24.</t>
+  </si>
+  <si>
+    <t>Proportion of heroin‐negative UDS (obtained 3×/week) at the end of the 12‐week postrandomization time point</t>
+  </si>
+  <si>
+    <t>Strang et al. (2019)</t>
+  </si>
+  <si>
+    <t>Percentage of participants with opioid‐positive urine test results at weeks 4, 8, 12</t>
+  </si>
+  <si>
+    <t>Woody et al. (2008)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,6 +330,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -314,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,6 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,22 +687,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730C9FF-B84E-414F-BE33-3EEBF943F5F1}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="138.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="247.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="247.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,421 +711,483 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
+++ b/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielodom/Documents/GitHub/CTN-0094/CTNote/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2E9B87-4B51-3343-ACB5-666F6A5187E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE2387-A2FA-6B4A-96BB-AB6C5AE08BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{486588A9-6F67-4D40-8009-2F993698A2A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>Primary Endpoint</t>
   </si>
@@ -313,6 +313,36 @@
   </si>
   <si>
     <t>Woody et al. (2008)</t>
+  </si>
+  <si>
+    <t>Ray Comment</t>
+  </si>
+  <si>
+    <t>Add argument for length of study</t>
+  </si>
+  <si>
+    <t>Harmony/withdrawal.sas7bdat</t>
+  </si>
+  <si>
+    <t>Ask Laura</t>
+  </si>
+  <si>
+    <t>dplyr lead() / lag()</t>
+  </si>
+  <si>
+    <t>More on TLFB: the TLFB data says WHICH drugs they used, so if this is missing, we assume "none", even though we assume that missing UDS is positive. Additional parameters: length of study, how to count missing UDS.</t>
+  </si>
+  <si>
+    <t>NA is positive UDS (informative v non-informative missing--missing UDS could be + or NA: make its own function); UDS and TLFB have same structure, so stack and arrange by date</t>
+  </si>
+  <si>
+    <t>Handle missings in pre-process step (independent of analysis). Another pre-processing step: create a function that allows users to specify when the subjects were supposed to show up (before missingness calculation in pipeline).</t>
+  </si>
+  <si>
+    <t>start of 3-unit interval; don't add the option</t>
+  </si>
+  <si>
+    <t>Missingness is handled in pre-processing. Time to event can be handled with dplyr lead() / lag()</t>
   </si>
 </sst>
 </file>
@@ -687,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730C9FF-B84E-414F-BE33-3EEBF943F5F1}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,9 +731,10 @@
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="247.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="128.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +753,11 @@
       <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -737,7 +771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -753,8 +787,11 @@
       <c r="F3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -767,8 +804,11 @@
       <c r="F4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -784,8 +824,11 @@
       <c r="F5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -798,8 +841,11 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -815,8 +861,11 @@
       <c r="F7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -832,8 +881,11 @@
       <c r="F8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -849,8 +901,11 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -867,7 +922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -881,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -895,7 +950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -911,8 +966,11 @@
       <c r="F13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -928,8 +986,11 @@
       <c r="F14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -945,8 +1006,11 @@
       <c r="F15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>

--- a/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
+++ b/vignettes/OpioidUse_UDS_Variables_20210422.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielodom/Documents/GitHub/CTN-0094/CTNote/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE2387-A2FA-6B4A-96BB-AB6C5AE08BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CA86F1-B72D-5B4E-9888-E53C5EBCCCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{486588A9-6F67-4D40-8009-2F993698A2A4}"/>
+    <workbookView xWindow="860" yWindow="880" windowWidth="31280" windowHeight="17440" xr2:uid="{486588A9-6F67-4D40-8009-2F993698A2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>Mokri et al. (2016)</t>
   </si>
   <si>
-    <t>Participant has used non-protocol prescribed opioids starting at day 21 post-randomization as follows: 4 consecutive opioid use weeks OR 7 consecutive days of use by self-report. Use week: Any week during which a participant self-reports at least one day of non-prescribed opioid use, provides a urine sample positive for non-study opioids, or fails to provide a urine sample at the weekly assessment visit.</t>
-  </si>
-  <si>
     <t>Lee et al. (2018)</t>
   </si>
   <si>
@@ -343,13 +340,16 @@
   </si>
   <si>
     <t>Missingness is handled in pre-processing. Time to event can be handled with dplyr lead() / lag()</t>
+  </si>
+  <si>
+    <t>Weeks to relapse (starting at day 21 post-randomization: 4 consecutive weeks with positive UOS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,13 +372,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -403,6 +416,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730C9FF-B84E-414F-BE33-3EEBF943F5F1}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +770,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -788,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -805,7 +821,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -825,7 +841,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -842,7 +858,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -862,7 +878,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -882,7 +898,7 @@
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -902,7 +918,7 @@
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -930,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -967,7 +983,7 @@
         <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -987,7 +1003,7 @@
         <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1007,7 +1023,7 @@
         <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1047,15 +1063,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1096,11 +1112,11 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
@@ -1114,10 +1130,10 @@
         <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -1134,10 +1150,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1151,10 +1167,10 @@
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1167,11 +1183,11 @@
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
         <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -1185,10 +1201,10 @@
         <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -1205,7 +1221,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1222,10 +1238,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
         <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -1242,10 +1258,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
